--- a/reports/Relatorio-grupo.xlsx
+++ b/reports/Relatorio-grupo.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/Internal/PRJ/Relatorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cinemagic\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BD47F2A3-0E0A-B543-8353-8A386466A75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B71286-A2E9-4BBC-80F2-971AF4F1DEAF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CEAE0-7534-4168-9C76-675BE11BADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="MWCV4UNOpwXajXhYO3DLv2x5Nf/2jigGC8w2CLYgcwqM1Pyl57CFFatt6ojrxmPUmxEb7UDwiz7K+CnxZrpEYQ==" workbookSaltValue="si/bL+Il44pFTMmzV+7s8A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto AI 2023-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Descrição Resumida do Grupo de Funcionalidades</t>
   </si>
   <si>
-    <t>Não Implementado</t>
-  </si>
-  <si>
     <t>Authentication, profile and user management</t>
   </si>
   <si>
@@ -192,13 +189,31 @@
   </si>
   <si>
     <t>FIM</t>
+  </si>
+  <si>
+    <t>Pedro Barbeiro</t>
+  </si>
+  <si>
+    <t>João Parreira</t>
+  </si>
+  <si>
+    <t>Diogo Abegão</t>
+  </si>
+  <si>
+    <t>No ficheiro php.ini, retirar o comentario da linha ";extension=zip" para "extension=zip", para que o phpspreadsheet funcione.</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Apenas algo que tivesse sido necessário para implementar alguma funcionalidade requerida.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,8 +448,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -450,37 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,31 +813,33 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:I14"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="65.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="2"/>
+    <col min="10" max="10" width="65.3984375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.1" customHeight="1"/>
-    <row r="2" spans="2:9" ht="21.95" customHeight="1">
+    <row r="1" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>83</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
@@ -830,79 +847,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="9" customHeight="1">
+    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:9" ht="21.95" customHeight="1">
+    <row r="4" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21.95" customHeight="1">
+    <row r="5" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="16">
+        <v>2221986</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" ht="21.95" customHeight="1">
+      <c r="F5" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="16">
+        <v>2221985</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" ht="21.95" customHeight="1">
+      <c r="F6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="16">
+        <v>2222184</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.1" customHeight="1"/>
-    <row r="9" spans="2:9" ht="21.95" customHeight="1">
-      <c r="B9" s="20" t="s">
+      <c r="F7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.95" customHeight="1">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="18"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:9" ht="12" customHeight="1">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="19"/>
       <c r="E11" s="11"/>
@@ -911,288 +940,281 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="21.95" customHeight="1">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="2:9" ht="21.95" customHeight="1">
-      <c r="B13" s="29" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:9" ht="129.94999999999999" customHeight="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="2:9" ht="11.1" customHeight="1">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-    </row>
-    <row r="16" spans="2:9" ht="21.95" customHeight="1">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:10" ht="21.95" customHeight="1">
+    <row r="17" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="129.94999999999999" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="2:10" ht="9.9499999999999993" customHeight="1">
+    <row r="18" spans="2:10" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="21.95" customHeight="1">
+    <row r="20" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="21.95" customHeight="1">
+    <row r="21" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:10" ht="129.94999999999999" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="24" spans="2:10" ht="36" customHeight="1">
-      <c r="B24" s="31" t="s">
+    <row r="22" spans="2:10" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="24" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="2:10" ht="42" customHeight="1">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="65.099999999999994" customHeight="1">
+    <row r="26" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="27" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="C27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
+      <c r="C28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
+      <c r="C30" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>6</v>
       </c>
-      <c r="C31" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
+      <c r="C31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>7</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
+      <c r="C32" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="65.099999999999994" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>8</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="C33" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" s="12" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="12" customFormat="1" ht="63" customHeight="1">
-      <c r="B35" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xUeiJDH9AE0D+7TX0zV3CbufrV5NVaCWEUpnkwpYxr08+fwcIX9w9CHr1Bp5uYIC0wEOmDNZRiW4m6vTzoc2nQ==" saltValue="oxvQqvqueSXMN1BUwr4Krg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F28:I28"/>
@@ -1202,11 +1224,22 @@
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C26:E33">
@@ -1390,9 +1423,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CAA8EC-A141-4192-AD87-122101E6F38E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CAA8EC-A141-4192-AD87-122101E6F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772D2DF-D665-4CE6-99C3-712F4E2B99E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772D2DF-D665-4CE6-99C3-712F4E2B99E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5925a40f-0a2a-4b80-a160-96527d703ea6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/reports/Relatorio-grupo.xlsx
+++ b/reports/Relatorio-grupo.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cinemagic\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cinemagic\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638CEAE0-7534-4168-9C76-675BE11BADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EB5CF6-CA8E-44A8-B299-29418F004C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="MWCV4UNOpwXajXhYO3DLv2x5Nf/2jigGC8w2CLYgcwqM1Pyl57CFFatt6ojrxmPUmxEb7UDwiz7K+CnxZrpEYQ==" workbookSaltValue="si/bL+Il44pFTMmzV+7s8A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto AI 2023-24" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -200,13 +200,33 @@
     <t>Diogo Abegão</t>
   </si>
   <si>
-    <t>No ficheiro php.ini, retirar o comentario da linha ";extension=zip" para "extension=zip", para que o phpspreadsheet funcione.</t>
-  </si>
-  <si>
     <t>Completo</t>
   </si>
   <si>
     <t>Apenas algo que tivesse sido necessário para implementar alguma funcionalidade requerida.</t>
+  </si>
+  <si>
+    <t>No ficheiro php.ini, retirar o comentario da linha ";extension=zip" para "extension=zip", para que o composer consiga fazer o download do package phpspreadsheet.</t>
+  </si>
+  <si>
+    <t>Implentadas todas as funcionalidades solicitadas.</t>
+  </si>
+  <si>
+    <t>Depois do registo, o Customer so tem acesso ao perfil e ás suas Purchases após a validação do email.
+Implentadas todas as funcionalidades solicitadas.</t>
+  </si>
+  <si>
+    <t>Implentadas todas as funcionalidades solicitadas.
+O administrador para consultar as purchases de um customer, necessita de ir a Administration-&gt;Customers
+O Customer para consultar as suas Purchases deve clicar no canto superior direito e clicar em Purchases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implentadas todas as funcionalidades solicitadas.
+O Employee acede á pagina de Screenings, e obtem apenas os screenings em exibição do dia. Seleciona o screening pretendido e pagina do screening tem acesso á lotação atual da sala e ao botão para iniciar a validação de bilhetes. A screenign em valição fica fixa no header do site. Quando já nao for necessario pode clicar no botão 'Stop validation' ou simplesmente clicar em validar noutro screening. Caso não se inicie a validação dos bilhetes, o employee não irá conseguir validar nenhum bilhete. </t>
+  </si>
+  <si>
+    <t>Implentadas todas as funcionalidades solicitadas.
+Para o acesso ás paginas de estatisticas ser mais eficaz, limitamos no primeiro acesso a estatisticas dos ultimos 30 dias, podendo o utilizador alterar o valor, ou consultar todos os registos.</t>
   </si>
 </sst>
 </file>
@@ -448,14 +468,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -473,29 +502,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,27 +833,27 @@
   <dimension ref="B1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:I22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.09765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="65.3984375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="2"/>
+    <col min="10" max="10" width="65.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -847,16 +867,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
@@ -866,14 +886,14 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -883,14 +903,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -900,38 +920,38 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="18"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-    </row>
-    <row r="11" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="19"/>
       <c r="E11" s="11"/>
@@ -940,269 +960,285 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="2:9" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="2:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="2:9" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="2:9" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="2:9" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="2:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:10" ht="9.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="2:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="2:10" ht="129.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="24" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+    <row r="22" spans="2:10" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="24" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="C26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
+      <c r="C27" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="C28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="C30" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>6</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="C31" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>7</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="C32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>8</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="C33" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="12" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" s="12" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>26</v>
       </c>
@@ -1210,11 +1246,22 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="xUeiJDH9AE0D+7TX0zV3CbufrV5NVaCWEUpnkwpYxr08+fwcIX9w9CHr1Bp5uYIC0wEOmDNZRiW4m6vTzoc2nQ==" saltValue="oxvQqvqueSXMN1BUwr4Krg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="F33:I33"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F28:I28"/>
@@ -1224,22 +1271,11 @@
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C26:E33">
@@ -1270,15 +1306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100987670E78AEDA042B0870E822F0DC46A" ma:contentTypeVersion="4" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="5485e65ccf85e0196acc8b40c57d39da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5925a40f-0a2a-4b80-a160-96527d703ea6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6348fba31520b6efebdd4165f57dd907" ns2:_="">
     <xsd:import namespace="5925a40f-0a2a-4b80-a160-96527d703ea6"/>
@@ -1422,15 +1449,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CAA8EC-A141-4192-AD87-122101E6F38E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9772D2DF-D665-4CE6-99C3-712F4E2B99E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1446,4 +1474,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75CAA8EC-A141-4192-AD87-122101E6F38E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>